--- a/Arquitetura Computacional/Prova 2/Tabela Verdade.xlsx
+++ b/Arquitetura Computacional/Prova 2/Tabela Verdade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luiz Dinani\Desktop\BandTec\1-Ano\Arquitetura Computacional\Prova 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F057AB01-88D9-4351-A641-B2164E3027F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E638F43C-DE97-441A-8D0C-4E87EA5B4917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{07AAB8D0-FA4B-4FEB-8558-6DD758E9C437}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{07AAB8D0-FA4B-4FEB-8558-6DD758E9C437}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -178,26 +178,13 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -216,7 +203,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -246,8 +246,8 @@
       <xdr:rowOff>13758</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2445734" cy="209288"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -321,7 +321,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -334,7 +334,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -348,7 +348,7 @@
                             <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -363,7 +363,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -378,7 +378,7 @@
                                     <a:srgbClr val="FF0000"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -391,7 +391,7 @@
                                     <a:srgbClr val="FF0000"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -403,7 +403,7 @@
                                     <a:srgbClr val="FF0000"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -415,7 +415,7 @@
                                     <a:srgbClr val="FF0000"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -441,7 +441,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -481,7 +481,7 @@
                             <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -508,7 +508,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -521,7 +521,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -533,7 +533,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -545,7 +545,7 @@
                                 <a:srgbClr val="FF0000"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -571,7 +571,7 @@
                             <a:srgbClr val="FF0000"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -626,7 +626,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -878,8 +878,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="217560" cy="173027"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -921,6 +921,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -953,7 +954,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1023,8 +1024,8 @@
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="392159" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1066,6 +1067,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1098,7 +1100,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1162,8 +1164,8 @@
       <xdr:rowOff>48419</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="733662" cy="180627"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1205,6 +1207,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1267,7 +1270,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1337,8 +1340,8 @@
       <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1125886" cy="209288"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CaixaDeTexto 6">
@@ -1380,6 +1383,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1408,7 +1412,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1421,7 +1425,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1435,7 +1439,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1450,7 +1454,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1465,7 +1469,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1478,7 +1482,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1490,7 +1494,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1502,7 +1506,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1528,7 +1532,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1546,7 +1550,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="CaixaDeTexto 6">
@@ -1673,8 +1677,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="966227" cy="180627"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CaixaDeTexto 7">
@@ -1716,6 +1720,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1790,7 +1795,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="CaixaDeTexto 7">
@@ -2155,1293 +2160,1327 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="9.140625" style="3"/>
-    <col min="8" max="10" width="9.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="7" width="9.140625" style="2"/>
+    <col min="8" max="10" width="9.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" spans="1:19" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S6" s="1"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="11">
-        <v>0</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="9">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10">
-        <v>1</v>
-      </c>
-      <c r="P9" s="10"/>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14">
+        <v>1</v>
+      </c>
+      <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10"/>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1</v>
-      </c>
-      <c r="L11" s="9">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="10"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>1</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10">
-        <v>1</v>
-      </c>
-      <c r="P13" s="10"/>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>1</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="10"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>1</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="10"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>1</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10">
-        <v>1</v>
-      </c>
-      <c r="P17" s="10"/>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>1</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10"/>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
-        <v>1</v>
-      </c>
-      <c r="L19" s="9">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10">
-        <v>0</v>
-      </c>
-      <c r="P19" s="10"/>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10">
-        <v>0</v>
-      </c>
-      <c r="P20" s="10"/>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9">
-        <v>1</v>
-      </c>
-      <c r="L21" s="9">
-        <v>1</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10">
-        <v>1</v>
-      </c>
-      <c r="P21" s="10"/>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14">
+        <v>1</v>
+      </c>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9">
-        <v>1</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10">
-        <v>0</v>
-      </c>
-      <c r="P22" s="10"/>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="14">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14">
+        <v>0</v>
+      </c>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10"/>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14">
+        <v>0</v>
+      </c>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10">
-        <v>0</v>
-      </c>
-      <c r="P24" s="10"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14">
+        <v>0</v>
+      </c>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
-        <v>1</v>
-      </c>
-      <c r="L25" s="9">
-        <v>1</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10">
-        <v>1</v>
-      </c>
-      <c r="P25" s="10"/>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1</v>
+      </c>
+      <c r="K25" s="5">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14">
+        <v>1</v>
+      </c>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
-        <v>1</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10">
-        <v>0</v>
-      </c>
-      <c r="P26" s="10"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="14">
+        <v>0</v>
+      </c>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14">
+        <v>0</v>
+      </c>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="9">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9">
-        <v>1</v>
-      </c>
-      <c r="L27" s="9">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0</v>
-      </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10"/>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14">
+        <v>0</v>
+      </c>
+      <c r="P27" s="14"/>
     </row>
     <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0</v>
-      </c>
-      <c r="J28" s="9">
-        <v>1</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
-      <c r="P28" s="10"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1</v>
+      </c>
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0</v>
+      </c>
+      <c r="M28" s="14">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14">
+        <v>0</v>
+      </c>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <v>1</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14">
-        <v>1</v>
-      </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-      <c r="K29" s="9">
-        <v>1</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10">
-        <v>1</v>
-      </c>
-      <c r="P29" s="10"/>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="14">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14">
+        <v>1</v>
+      </c>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9">
-        <v>1</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0</v>
-      </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10">
-        <v>0</v>
-      </c>
-      <c r="P30" s="10"/>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14">
+        <v>0</v>
+      </c>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="10"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1</v>
+      </c>
+      <c r="M31" s="14">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14">
+        <v>0</v>
+      </c>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
-        <v>0</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0</v>
-      </c>
-      <c r="L32" s="9">
-        <v>1</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0</v>
-      </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10">
-        <v>0</v>
-      </c>
-      <c r="P32" s="10"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0</v>
+      </c>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14">
+        <v>0</v>
+      </c>
+      <c r="P32" s="14"/>
     </row>
     <row r="33" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14">
-        <v>1</v>
-      </c>
-      <c r="J33" s="9">
-        <v>0</v>
-      </c>
-      <c r="K33" s="9">
-        <v>1</v>
-      </c>
-      <c r="L33" s="9">
-        <v>1</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10">
-        <v>1</v>
-      </c>
-      <c r="P33" s="10"/>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>1</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1</v>
+      </c>
+      <c r="M33" s="14">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14">
+        <v>1</v>
+      </c>
+      <c r="P33" s="14"/>
     </row>
     <row r="34" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11">
-        <v>1</v>
-      </c>
-      <c r="I34" s="14">
-        <v>1</v>
-      </c>
-      <c r="J34" s="9">
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <v>1</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10">
-        <v>1</v>
-      </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10">
-        <v>0</v>
-      </c>
-      <c r="P34" s="10"/>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0</v>
+      </c>
+      <c r="M34" s="14">
+        <v>1</v>
+      </c>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14">
+        <v>0</v>
+      </c>
+      <c r="P34" s="14"/>
     </row>
     <row r="35" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9">
-        <v>1</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10">
-        <v>0</v>
-      </c>
-      <c r="P35" s="10"/>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <v>1</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="14">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14">
+        <v>0</v>
+      </c>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D36" s="11">
-        <v>1</v>
-      </c>
-      <c r="E36" s="11">
-        <v>1</v>
-      </c>
-      <c r="F36" s="11">
-        <v>1</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <v>1</v>
-      </c>
-      <c r="I36" s="14">
-        <v>1</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0</v>
-      </c>
-      <c r="K36" s="9">
-        <v>1</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1</v>
-      </c>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10">
-        <v>0</v>
-      </c>
-      <c r="P36" s="10"/>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0</v>
+      </c>
+      <c r="M36" s="14">
+        <v>1</v>
+      </c>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14">
+        <v>0</v>
+      </c>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14">
-        <v>1</v>
-      </c>
-      <c r="J37" s="9">
-        <v>0</v>
-      </c>
-      <c r="K37" s="9">
-        <v>1</v>
-      </c>
-      <c r="L37" s="9">
-        <v>1</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0</v>
-      </c>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10">
-        <v>1</v>
-      </c>
-      <c r="P37" s="10"/>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="5">
+        <v>1</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1</v>
+      </c>
+      <c r="M37" s="14">
+        <v>0</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14">
+        <v>1</v>
+      </c>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D38" s="11">
-        <v>1</v>
-      </c>
-      <c r="E38" s="11">
-        <v>1</v>
-      </c>
-      <c r="F38" s="11">
-        <v>1</v>
-      </c>
-      <c r="G38" s="11">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11">
-        <v>1</v>
-      </c>
-      <c r="I38" s="15">
-        <v>1</v>
-      </c>
-      <c r="J38" s="9">
-        <v>0</v>
-      </c>
-      <c r="K38" s="9">
-        <v>1</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0</v>
-      </c>
-      <c r="M38" s="10">
-        <v>1</v>
-      </c>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10">
-        <v>0</v>
-      </c>
-      <c r="P38" s="10"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="5">
+        <v>1</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="14">
+        <v>1</v>
+      </c>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14">
+        <v>0</v>
+      </c>
+      <c r="P38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="G4:P4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="O30:P30"/>
@@ -3458,6 +3497,11 @@
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O22:P22"/>
@@ -3469,45 +3513,6 @@
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="G4:P4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
